--- a/Data/description/summary_tonkean_2021.xlsx
+++ b/Data/description/summary_tonkean_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.055203586924132e-05</v>
+        <v>6.055203586924131e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>9.580379317361271e-06</v>
+        <v>9.580379317361273e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>2.865030998284638e-06</v>
+        <v>2.865030998284639e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.023185171972506e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09620002587460927</v>
+        <v>0.09620002587460928</v>
       </c>
     </row>
     <row r="8">
@@ -610,16 +610,16 @@
         <v>0.1730594301645966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2844166382803297</v>
+        <v>0.2844166382803296</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4965308693714717</v>
+        <v>0.4965308693714716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06246027478010931</v>
+        <v>0.06246027478010936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25849294308377</v>
+        <v>0.2584929430837699</v>
       </c>
     </row>
     <row r="9">
@@ -642,6 +642,28 @@
       </c>
       <c r="F9" t="n">
         <v>-0.05196252292030517</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>number of subgroups</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
